--- a/Documentation/IssueTrackingTemplate 2023.xlsx
+++ b/Documentation/IssueTrackingTemplate 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://techtoriumacnz.sharepoint.com/sites/CLASSSWD/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Proteine-Plus\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{609D0F53-9157-4949-AB7C-10A1048AC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45380D34-49CD-4AFF-81B3-1F643E581E69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C072835-EAC9-455C-AE22-2FA462168684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{424A518E-60D1-476D-B9C7-FC88A6A8BF20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{424A518E-60D1-476D-B9C7-FC88A6A8BF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Bugs and Issues Tracking Template</t>
   </si>
@@ -95,12 +95,61 @@
   <si>
     <t>Comments (if any)</t>
   </si>
+  <si>
+    <t>While implementing the Database an error occurred where the database was not accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To fix this issue the Proteine team had to implement the database into the home page and all linking pages that were linked to the specific document that required the database, such as AddExercisePage and FoodIntakePage.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>IS01</t>
+  </si>
+  <si>
+    <t>IS02</t>
+  </si>
+  <si>
+    <t>IS03</t>
+  </si>
+  <si>
+    <t>IS04</t>
+  </si>
+  <si>
+    <t>IS05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While using the Food Intake and the exercise logging pages, the user wanted to input their data into the database the application would go into break mode. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The protein team fixed it by implementing the lines of code that follows.
+this code makes it so that when the exercise is being saved it makes sure that there is an ID for the exercise and if there is no ID then it will insert one 
+public async Task&lt;int&gt; SaveCategoryAsync(Exercise exercise)
+{
+await Init();
+if (Exercise.Exerciseld != 0)
+{
+return await Database.UpdateAsync(exercise);
+}
+else
+{
+return await Database.InsertAsync(exercise);
+}
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +164,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -161,12 +203,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +233,16 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,10 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -233,47 +295,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -287,6 +361,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6445250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074B0E88-3A1D-350A-2FC4-5E6BA3E49C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12763500" y="1847850"/>
+          <a:ext cx="6359525" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5893435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2532380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="A screenshot of a computer program&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6C914A-C698-8DAF-16A2-EBEFBD998AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12839700" y="3276600"/>
+          <a:ext cx="5731510" cy="2303780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,11 +777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3077EA1D-6131-4F3F-AAD9-987F0F315D03}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
@@ -602,123 +791,161 @@
     <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
     <col min="8" max="8" width="67.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="98" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="54" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15">
+        <v>45254</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45254</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="H10" s="13"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" s="5"/>
     </row>
   </sheetData>
@@ -727,19 +954,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -748,6 +967,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,13 +1194,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5A31AF-7E73-46CC-A489-5A951F56E47B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B117156E-4843-4E5A-94DD-2C03D3A6E2AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
+    <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B117156E-4843-4E5A-94DD-2C03D3A6E2AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5A31AF-7E73-46CC-A489-5A951F56E47B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CECDAD-2AB9-424E-BD92-9DCB7BA84E80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CECDAD-2AB9-424E-BD92-9DCB7BA84E80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+    <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/IssueTrackingTemplate 2023.xlsx
+++ b/Documentation/IssueTrackingTemplate 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Proteine-Plus\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C072835-EAC9-455C-AE22-2FA462168684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C4471-F594-484E-96A3-CD101C950666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{424A518E-60D1-476D-B9C7-FC88A6A8BF20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Bugs and Issues Tracking Template</t>
   </si>
@@ -120,12 +120,6 @@
     <t>IS03</t>
   </si>
   <si>
-    <t>IS04</t>
-  </si>
-  <si>
-    <t>IS05</t>
-  </si>
-  <si>
     <t xml:space="preserve">While using the Food Intake and the exercise logging pages, the user wanted to input their data into the database the application would go into break mode. </t>
   </si>
   <si>
@@ -143,6 +137,18 @@
 return await Database.InsertAsync(exercise);
 }
 </t>
+  </si>
+  <si>
+    <t>Tried cleaning project and the issue was fixed</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/28/2023</t>
+  </si>
+  <si>
+    <t>Loaded up the code and these auto generated files could not be found</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,13 +284,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -314,35 +355,56 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -471,6 +533,67 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5934075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3200400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F009717-8176-E780-C580-C035CEA6F512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13201650" y="6276975"/>
+          <a:ext cx="5410200" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -775,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3077EA1D-6131-4F3F-AAD9-987F0F315D03}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,21 +918,21 @@
     <col min="10" max="10" width="10.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -841,111 +964,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>45254</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45254</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45254</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I5"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" s="5"/>
     </row>
   </sheetData>
@@ -959,6 +1093,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -967,15 +1110,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,20 +1328,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5A31AF-7E73-46CC-A489-5A951F56E47B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B117156E-4843-4E5A-94DD-2C03D3A6E2AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5A31AF-7E73-46CC-A489-5A951F56E47B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
